--- a/ISRaD_Data/Czimczik_2005.xlsx
+++ b/ISRaD_Data/Czimczik_2005.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="11720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1899,15 +1899,6 @@
     <t>frc_14c_sd</t>
   </si>
   <si>
-    <t>frc_frc_modern</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sigma</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sd</t>
-  </si>
-  <si>
     <t>frc_mbc_method</t>
   </si>
   <si>
@@ -2978,13 +2969,22 @@
   </si>
   <si>
     <t>Acid-Base-Acid (ABA)</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sigma</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3008,21 +3008,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3033,8 +3080,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3670,7 +3726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -4011,7 +4067,7 @@
         <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="T4" t="s">
         <v>174</v>
@@ -4046,7 +4102,7 @@
         <v>173</v>
       </c>
       <c r="O5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="T5" t="s">
         <v>174</v>
@@ -4081,7 +4137,7 @@
         <v>173</v>
       </c>
       <c r="O6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="T6" t="s">
         <v>174</v>
@@ -4113,7 +4169,7 @@
         <v>173</v>
       </c>
       <c r="O7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="T7" t="s">
         <v>174</v>
@@ -6113,11 +6169,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AK1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:73" ht="52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6220,122 +6278,122 @@
       <c r="AH1" t="s">
         <v>622</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="AL1" t="s">
         <v>623</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>624</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>625</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>626</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>627</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>628</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>629</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>630</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>631</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>632</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>633</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>634</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>635</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>636</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>637</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>638</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>639</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>640</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>641</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>642</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>643</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>644</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>645</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>646</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>647</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>648</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>649</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>650</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>651</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>652</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>653</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>654</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>655</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>656</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>657</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>658</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>659</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>660</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:73">
@@ -6352,40 +6410,40 @@
         <v>355</v>
       </c>
       <c r="E2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2" t="s">
         <v>662</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>663</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>664</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>665</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>666</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>667</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>668</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>669</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>670</v>
-      </c>
-      <c r="N2" t="s">
-        <v>671</v>
-      </c>
-      <c r="O2" t="s">
-        <v>672</v>
-      </c>
-      <c r="P2" t="s">
-        <v>673</v>
       </c>
       <c r="Q2" t="s">
         <v>218</v>
@@ -6397,28 +6455,28 @@
         <v>220</v>
       </c>
       <c r="U2" t="s">
+        <v>671</v>
+      </c>
+      <c r="V2" t="s">
+        <v>672</v>
+      </c>
+      <c r="W2" t="s">
+        <v>673</v>
+      </c>
+      <c r="X2" t="s">
         <v>674</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>675</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>676</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>677</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>678</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>681</v>
       </c>
       <c r="AC2" t="s">
         <v>239</v>
@@ -6430,22 +6488,22 @@
         <v>241</v>
       </c>
       <c r="AF2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AI2" t="s">
         <v>682</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>683</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>684</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>687</v>
       </c>
       <c r="AL2" t="s">
         <v>403</v>
@@ -6469,7 +6527,7 @@
         <v>412</v>
       </c>
       <c r="AS2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="AT2" t="s">
         <v>414</v>
@@ -6520,7 +6578,7 @@
         <v>430</v>
       </c>
       <c r="BJ2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="BK2" t="s">
         <v>432</v>
@@ -6561,19 +6619,19 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>687</v>
+      </c>
+      <c r="G3" t="s">
+        <v>688</v>
+      </c>
+      <c r="H3" t="s">
+        <v>689</v>
+      </c>
+      <c r="I3" t="s">
         <v>690</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>691</v>
-      </c>
-      <c r="H3" t="s">
-        <v>692</v>
-      </c>
-      <c r="I3" t="s">
-        <v>693</v>
-      </c>
-      <c r="M3" t="s">
-        <v>694</v>
       </c>
       <c r="N3" t="s">
         <v>151</v>
@@ -6633,49 +6691,49 @@
         <v>452</v>
       </c>
       <c r="AO3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AP3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AQ3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AR3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AT3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AU3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AV3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AW3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AY3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AZ3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BA3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BB3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BD3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BE3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BF3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BG3" t="s">
         <v>454</v>
@@ -6759,79 +6817,79 @@
         <v>593</v>
       </c>
       <c r="F1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I1" t="s">
         <v>696</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>697</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>698</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>699</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>700</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>701</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>702</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>703</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>704</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>705</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>706</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>707</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>708</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>709</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>710</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>711</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>712</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>713</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>714</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>715</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>716</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>717</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>719</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -6842,16 +6900,16 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F2" t="s">
         <v>721</v>
-      </c>
-      <c r="D2" t="s">
-        <v>722</v>
-      </c>
-      <c r="E2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F2" t="s">
-        <v>724</v>
       </c>
       <c r="G2" t="s">
         <v>361</v>
@@ -6866,28 +6924,28 @@
         <v>220</v>
       </c>
       <c r="K2" t="s">
+        <v>722</v>
+      </c>
+      <c r="N2" t="s">
+        <v>723</v>
+      </c>
+      <c r="O2" t="s">
+        <v>724</v>
+      </c>
+      <c r="P2" t="s">
         <v>725</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>726</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>727</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>728</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>729</v>
-      </c>
-      <c r="R2" t="s">
-        <v>730</v>
-      </c>
-      <c r="T2" t="s">
-        <v>731</v>
-      </c>
-      <c r="U2" t="s">
-        <v>732</v>
       </c>
       <c r="V2" t="s">
         <v>239</v>
@@ -6899,22 +6957,22 @@
         <v>241</v>
       </c>
       <c r="Y2" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB2" t="s">
         <v>733</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>734</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>735</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>736</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>737</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -6934,13 +6992,13 @@
         <v>592</v>
       </c>
       <c r="L3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="M3" t="s">
         <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
@@ -6985,136 +7043,136 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1" t="s">
         <v>741</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>742</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>743</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>744</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>745</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>746</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>747</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>748</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>749</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>750</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>751</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>752</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>753</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>754</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>755</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>756</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>757</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>758</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>759</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>760</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>761</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>762</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>763</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>764</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>765</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>766</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>767</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>768</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>769</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>770</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>771</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>772</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>773</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>774</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>775</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>776</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>777</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>778</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>779</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>780</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>781</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -7197,7 +7255,7 @@
         <v>271</v>
       </c>
       <c r="AA2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AB2" t="s">
         <v>554</v>
@@ -7215,22 +7273,22 @@
         <v>563</v>
       </c>
       <c r="AG2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AH2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AI2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AJ2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AK2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AL2" t="s">
         <v>706</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>709</v>
       </c>
       <c r="AM2" t="s">
         <v>596</v>
@@ -7248,732 +7306,732 @@
         <v>602</v>
       </c>
       <c r="AR2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="G3" t="s">
+        <v>784</v>
+      </c>
+      <c r="H3" t="s">
+        <v>785</v>
+      </c>
+      <c r="I3" t="s">
+        <v>786</v>
+      </c>
+      <c r="U3" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AO3" t="s">
         <v>787</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AP3" t="s">
         <v>788</v>
-      </c>
-      <c r="I3" t="s">
-        <v>789</v>
-      </c>
-      <c r="U3" t="s">
-        <v>788</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>665</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>790</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D4" t="s">
         <v>792</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>793</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>794</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>795</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>796</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>797</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>798</v>
-      </c>
-      <c r="H4" t="s">
-        <v>799</v>
-      </c>
-      <c r="I4" t="s">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>801</v>
       </c>
       <c r="K4" t="s">
         <v>171</v>
       </c>
       <c r="L4" t="s">
+        <v>799</v>
+      </c>
+      <c r="M4" t="s">
+        <v>800</v>
+      </c>
+      <c r="N4" t="s">
+        <v>801</v>
+      </c>
+      <c r="O4" t="s">
         <v>802</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>803</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>804</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>791</v>
+      </c>
+      <c r="S4" t="s">
+        <v>791</v>
+      </c>
+      <c r="T4" t="s">
         <v>805</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>806</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>807</v>
       </c>
-      <c r="R4" t="s">
-        <v>794</v>
-      </c>
-      <c r="S4" t="s">
-        <v>794</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>808</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>791</v>
+      </c>
+      <c r="Z4" t="s">
         <v>809</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>810</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>811</v>
       </c>
-      <c r="X4" t="s">
-        <v>794</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>794</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
+        <v>800</v>
+      </c>
+      <c r="AD4" t="s">
         <v>812</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
+        <v>803</v>
+      </c>
+      <c r="AF4" t="s">
         <v>813</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>814</v>
       </c>
-      <c r="AC4" t="s">
-        <v>803</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
+        <v>801</v>
+      </c>
+      <c r="AI4" t="s">
         <v>815</v>
       </c>
-      <c r="AE4" t="s">
-        <v>806</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>816</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>817</v>
       </c>
-      <c r="AH4" t="s">
-        <v>804</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>818</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>819</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>820</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>821</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>822</v>
       </c>
-      <c r="AN4" t="s">
-        <v>823</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>824</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>825</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AR4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5" t="s">
+        <v>824</v>
+      </c>
+      <c r="D5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E5" t="s">
         <v>826</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>827</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>828</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>829</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>830</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>831</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>832</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>833</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>834</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>835</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>836</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>837</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>838</v>
       </c>
-      <c r="O5" t="s">
+      <c r="T5" t="s">
         <v>839</v>
       </c>
-      <c r="P5" t="s">
+      <c r="U5" t="s">
         <v>840</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="V5" t="s">
         <v>841</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>842</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AA5" t="s">
         <v>843</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AB5" t="s">
         <v>844</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AC5" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD5" t="s">
         <v>845</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
+        <v>837</v>
+      </c>
+      <c r="AF5" t="s">
         <v>846</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AG5" t="s">
         <v>847</v>
       </c>
-      <c r="AC5" t="s">
-        <v>837</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
+        <v>835</v>
+      </c>
+      <c r="AI5" t="s">
         <v>848</v>
       </c>
-      <c r="AE5" t="s">
-        <v>840</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>849</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>850</v>
       </c>
-      <c r="AH5" t="s">
-        <v>838</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AL5" t="s">
         <v>851</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AM5" t="s">
         <v>852</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>853</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AO5" t="s">
         <v>854</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AP5" t="s">
         <v>855</v>
       </c>
-      <c r="AN5" t="s">
-        <v>856</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>857</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>858</v>
-      </c>
       <c r="AR5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
+        <v>856</v>
+      </c>
+      <c r="B6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E6" t="s">
         <v>859</v>
-      </c>
-      <c r="B6" t="s">
-        <v>860</v>
-      </c>
-      <c r="D6" t="s">
-        <v>861</v>
-      </c>
-      <c r="E6" t="s">
-        <v>862</v>
       </c>
       <c r="F6" t="s">
         <v>174</v>
       </c>
       <c r="G6" t="s">
+        <v>860</v>
+      </c>
+      <c r="H6" t="s">
+        <v>861</v>
+      </c>
+      <c r="I6" t="s">
+        <v>862</v>
+      </c>
+      <c r="J6" t="s">
         <v>863</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>864</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>865</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>866</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>867</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>868</v>
-      </c>
-      <c r="N6" t="s">
-        <v>869</v>
-      </c>
-      <c r="O6" t="s">
-        <v>870</v>
-      </c>
-      <c r="P6" t="s">
-        <v>871</v>
       </c>
       <c r="Q6" t="s">
         <v>592</v>
       </c>
       <c r="T6" t="s">
+        <v>869</v>
+      </c>
+      <c r="U6" t="s">
+        <v>870</v>
+      </c>
+      <c r="V6" t="s">
+        <v>871</v>
+      </c>
+      <c r="W6" t="s">
         <v>872</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>873</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>874</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>868</v>
+      </c>
+      <c r="AF6" t="s">
         <v>875</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>876</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>877</v>
       </c>
-      <c r="AC6" t="s">
-        <v>868</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>871</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>878</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>859</v>
+      </c>
+      <c r="AM6" t="s">
         <v>879</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AN6" t="s">
         <v>880</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>881</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>862</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>882</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>883</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>884</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B7" t="s">
+        <v>883</v>
+      </c>
+      <c r="F7" t="s">
+        <v>884</v>
+      </c>
+      <c r="G7" t="s">
         <v>885</v>
       </c>
-      <c r="B7" t="s">
+      <c r="H7" t="s">
         <v>886</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>887</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>888</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>889</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>890</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>891</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>892</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" t="s">
         <v>893</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
         <v>894</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>895</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AC7" t="s">
+        <v>889</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>891</v>
+      </c>
+      <c r="AF7" t="s">
         <v>896</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AG7" t="s">
         <v>897</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AI7" t="s">
         <v>898</v>
       </c>
-      <c r="AC7" t="s">
-        <v>892</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>894</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AM7" t="s">
         <v>899</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" t="s">
         <v>900</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>901</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AP7" t="s">
         <v>902</v>
       </c>
-      <c r="AN7" t="s">
-        <v>903</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>904</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>905</v>
-      </c>
       <c r="AR7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B8" t="s">
+        <v>904</v>
+      </c>
+      <c r="F8" t="s">
+        <v>905</v>
+      </c>
+      <c r="G8" t="s">
         <v>906</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>907</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>908</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>909</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>910</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>911</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>912</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>913</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>914</v>
       </c>
-      <c r="P8" t="s">
+      <c r="V8" t="s">
         <v>915</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
+        <v>859</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>912</v>
+      </c>
+      <c r="AG8" t="s">
         <v>916</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AM8" t="s">
         <v>917</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AN8" t="s">
         <v>918</v>
       </c>
-      <c r="W8" t="s">
-        <v>862</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>913</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>915</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AO8" t="s">
         <v>919</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>920</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>921</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>922</v>
       </c>
       <c r="AP8" t="s">
         <v>592</v>
       </c>
       <c r="AR8" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
+        <v>920</v>
+      </c>
+      <c r="B9" t="s">
+        <v>921</v>
+      </c>
+      <c r="F9" t="s">
+        <v>922</v>
+      </c>
+      <c r="G9" t="s">
         <v>923</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>924</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>925</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>926</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>927</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>928</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
         <v>929</v>
       </c>
-      <c r="M9" t="s">
+      <c r="U9" t="s">
         <v>930</v>
       </c>
-      <c r="P9" t="s">
+      <c r="AE9" t="s">
         <v>931</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AG9" t="s">
+        <v>927</v>
+      </c>
+      <c r="AM9" t="s">
         <v>932</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AN9" t="s">
         <v>933</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AO9" t="s">
         <v>934</v>
       </c>
-      <c r="AG9" t="s">
-        <v>930</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AP9" t="s">
         <v>935</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>936</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>937</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
+        <v>936</v>
+      </c>
+      <c r="B10" t="s">
+        <v>937</v>
+      </c>
+      <c r="F10" t="s">
+        <v>938</v>
+      </c>
+      <c r="G10" t="s">
         <v>939</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>940</v>
       </c>
-      <c r="F10" t="s">
+      <c r="U10" t="s">
         <v>941</v>
       </c>
-      <c r="G10" t="s">
+      <c r="AM10" t="s">
         <v>942</v>
       </c>
-      <c r="H10" t="s">
+      <c r="AN10" t="s">
         <v>943</v>
       </c>
-      <c r="U10" t="s">
+      <c r="AO10" t="s">
         <v>944</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AP10" t="s">
         <v>945</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>946</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>947</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="B11" t="s">
+        <v>946</v>
+      </c>
+      <c r="F11" t="s">
+        <v>947</v>
+      </c>
+      <c r="H11" t="s">
+        <v>948</v>
+      </c>
+      <c r="U11" t="s">
         <v>949</v>
       </c>
-      <c r="F11" t="s">
+      <c r="AM11" t="s">
         <v>950</v>
       </c>
-      <c r="H11" t="s">
+      <c r="AN11" t="s">
         <v>951</v>
       </c>
-      <c r="U11" t="s">
+      <c r="AO11" t="s">
+        <v>951</v>
+      </c>
+      <c r="AP11" t="s">
         <v>952</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>953</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>954</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>954</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="H12" t="s">
+        <v>953</v>
+      </c>
+      <c r="U12" t="s">
+        <v>954</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>955</v>
+      </c>
+      <c r="AN12" t="s">
         <v>956</v>
       </c>
-      <c r="U12" t="s">
+      <c r="AO12" t="s">
         <v>957</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>958</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>959</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="U13" t="s">
+        <v>958</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>959</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>960</v>
+      </c>
+      <c r="AO13" t="s">
         <v>961</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>962</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>963</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="U14" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="AN14" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AO14" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="U15" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AN15" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AO15" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="U16" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="AN16" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="AO16" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="40:41">
       <c r="AN17" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="AO17" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="18" spans="40:41">
       <c r="AN18" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AO18" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19" spans="40:41">
       <c r="AN19" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="AO19" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="40:41">
       <c r="AN20" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="AO20" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="21" spans="40:41">
       <c r="AN21" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
